--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiSupporto.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiSupporto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProcesso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E62C6FB-C825-4C10-9466-E48C13ED72EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07872C3D-7E2C-4E38-81B4-65CE1E707706}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3440947A-BDC3-41E2-B8C4-C01620109B14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3440947A-BDC3-41E2-B8C4-C01620109B14}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentazione" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="43">
   <si>
     <t>Indice Gulpease</t>
   </si>
@@ -145,6 +145,24 @@
   </si>
   <si>
     <t>CC</t>
+  </si>
+  <si>
+    <t>User Manual</t>
+  </si>
+  <si>
+    <t>Develop Manual</t>
+  </si>
+  <si>
+    <t>2.1.0</t>
+  </si>
+  <si>
+    <t>3.0.0</t>
+  </si>
+  <si>
+    <t>User Manual gulpease</t>
+  </si>
+  <si>
+    <t>Developer Manual gulpease</t>
   </si>
 </sst>
 </file>
@@ -513,9 +531,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$3:$B$10</c:f>
+              <c:f>Documentazione!$B$3:$B$12</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Analisi dei Requisiti</c:v>
                 </c:pt>
@@ -539,16 +557,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Verbali Interni (Media)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>User Manual</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Develop Manual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$C$3:$C$10</c:f>
+              <c:f>Documentazione!$C$3:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>63</c:v>
                 </c:pt>
@@ -665,9 +689,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$3:$B$10</c:f>
+              <c:f>Documentazione!$B$3:$B$12</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Analisi dei Requisiti</c:v>
                 </c:pt>
@@ -691,16 +715,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Verbali Interni (Media)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>User Manual</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Develop Manual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$D$3:$D$10</c:f>
+              <c:f>Documentazione!$D$3:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>65</c:v>
                 </c:pt>
@@ -814,9 +844,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$3:$B$10</c:f>
+              <c:f>Documentazione!$B$3:$B$12</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Analisi dei Requisiti</c:v>
                 </c:pt>
@@ -840,16 +870,49 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Verbali Interni (Media)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>User Manual</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Develop Manual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$E$3:$E$10</c:f>
+              <c:f>Documentazione!$E$3:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -944,9 +1007,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$3:$B$10</c:f>
+              <c:f>Documentazione!$B$3:$B$12</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Analisi dei Requisiti</c:v>
                 </c:pt>
@@ -970,16 +1033,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Verbali Interni (Media)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>User Manual</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Develop Manual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$F$3:$F$10</c:f>
+              <c:f>Documentazione!$F$3:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1032,9 +1101,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$3:$B$10</c:f>
+              <c:f>Documentazione!$B$3:$B$12</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Analisi dei Requisiti</c:v>
                 </c:pt>
@@ -1058,16 +1127,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Verbali Interni (Media)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>User Manual</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Develop Manual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$G$3:$G$10</c:f>
+              <c:f>Documentazione!$G$3:$G$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
@@ -1090,6 +1165,12 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
@@ -1130,9 +1211,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$3:$B$10</c:f>
+              <c:f>Documentazione!$B$3:$B$12</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>Analisi dei Requisiti</c:v>
                 </c:pt>
@@ -1156,16 +1237,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Verbali Interni (Media)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>User Manual</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Develop Manual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$H$3:$H$10</c:f>
+              <c:f>Documentazione!$H$3:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>80</c:v>
                 </c:pt>
@@ -1188,6 +1275,12 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
@@ -1398,6 +1491,1442 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Developer Manual</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39732260203072839"/>
+          <c:y val="2.2650056625141562E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Documentazione!$C$262</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Andamento indice</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Documentazione!$B$263:$B$265</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Documentazione!$C$263:$C$265</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-87D2-4AAA-8E4F-A2552552F6C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Documentazione!$D$262</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accettabile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Documentazione!$B$263:$B$265</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Documentazione!$D$263:$D$265</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-87D2-4AAA-8E4F-A2552552F6C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Documentazione!$E$262</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ottimale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Documentazione!$B$263:$B$265</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Documentazione!$E$263:$E$265</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-87D2-4AAA-8E4F-A2552552F6C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="365907192"/>
+        <c:axId val="365909112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="365907192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Versione</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> documento</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365909112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="365909112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="90"/>
+          <c:min val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" b="0" i="0"/>
+                  <a:t>Indice</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" b="0" i="0" baseline="0"/>
+                  <a:t> Gulpease</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" b="0" i="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365907192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Code</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> Coverage FE</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37742549143944198"/>
+          <c:y val="2.2650197170030157E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Verifica!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Verifica!$C$6:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44251</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44253</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44254</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44257</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44258</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44259</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Verifica!$D$6:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B148-4C06-A54A-3EF71AB04CF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Verifica!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accettabile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Verifica!$C$6:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44251</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44253</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44254</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44257</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44258</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44259</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Verifica!$E$6:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B148-4C06-A54A-3EF71AB04CF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Verifica!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ottimale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Verifica!$C$6:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>44250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44251</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44253</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44254</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44257</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44258</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44259</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Verifica!$F$6:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B148-4C06-A54A-3EF71AB04CF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="365907192"/>
+        <c:axId val="365909112"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="365907192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Data</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365909112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="365909112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365907192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr u="none"/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -2338,9 +3867,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$60:$B$65</c:f>
+              <c:f>Documentazione!$B$60:$B$67</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.1.0</c:v>
                 </c:pt>
@@ -2358,16 +3887,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$C$60:$C$65</c:f>
+              <c:f>Documentazione!$C$60:$C$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>59</c:v>
                 </c:pt>
@@ -2385,6 +3920,12 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2424,9 +3965,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$60:$B$65</c:f>
+              <c:f>Documentazione!$B$60:$B$67</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.1.0</c:v>
                 </c:pt>
@@ -2444,16 +3985,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$D$60:$D$65</c:f>
+              <c:f>Documentazione!$D$60:$D$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
@@ -2470,6 +4017,12 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
@@ -2510,9 +4063,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$60:$B$65</c:f>
+              <c:f>Documentazione!$B$60:$B$67</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.1.0</c:v>
                 </c:pt>
@@ -2530,16 +4083,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$E$60:$E$65</c:f>
+              <c:f>Documentazione!$E$60:$E$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>80</c:v>
                 </c:pt>
@@ -2556,6 +4115,12 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
@@ -3073,9 +4638,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$82:$B$87</c:f>
+              <c:f>Documentazione!$B$82:$B$89</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.1.0</c:v>
                 </c:pt>
@@ -3093,16 +4658,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$C$82:$C$87</c:f>
+              <c:f>Documentazione!$C$82:$C$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>60</c:v>
                 </c:pt>
@@ -3119,6 +4690,12 @@
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
@@ -3159,9 +4736,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$82:$B$87</c:f>
+              <c:f>Documentazione!$B$82:$B$89</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.1.0</c:v>
                 </c:pt>
@@ -3179,16 +4756,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$D$82:$D$87</c:f>
+              <c:f>Documentazione!$D$82:$D$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
@@ -3205,6 +4788,12 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
@@ -3245,9 +4834,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$82:$B$87</c:f>
+              <c:f>Documentazione!$B$82:$B$89</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.1.0</c:v>
                 </c:pt>
@@ -3265,16 +4854,22 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$E$82:$E$87</c:f>
+              <c:f>Documentazione!$E$82:$E$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>80</c:v>
                 </c:pt>
@@ -3291,6 +4886,12 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
@@ -3803,9 +5404,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$105:$B$109</c:f>
+              <c:f>Documentazione!$B$105:$B$111</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.1.0</c:v>
                 </c:pt>
@@ -3820,16 +5421,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$C$105:$C$109</c:f>
+              <c:f>Documentazione!$C$105:$C$111</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -3844,6 +5451,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3883,9 +5496,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$105:$B$109</c:f>
+              <c:f>Documentazione!$B$105:$B$111</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.1.0</c:v>
                 </c:pt>
@@ -3900,16 +5513,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$D$105:$D$109</c:f>
+              <c:f>Documentazione!$D$105:$D$111</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
@@ -3923,6 +5542,12 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
@@ -3963,9 +5588,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$105:$B$109</c:f>
+              <c:f>Documentazione!$B$105:$B$111</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.1.0</c:v>
                 </c:pt>
@@ -3980,16 +5605,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$E$105:$E$109</c:f>
+              <c:f>Documentazione!$E$105:$E$111</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>80</c:v>
                 </c:pt>
@@ -4003,6 +5634,12 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
@@ -4515,9 +6152,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$124:$B$128</c:f>
+              <c:f>Documentazione!$B$124:$B$130</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.1.0</c:v>
                 </c:pt>
@@ -4532,16 +6169,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$C$124:$C$128</c:f>
+              <c:f>Documentazione!$C$124:$C$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>64</c:v>
                 </c:pt>
@@ -4556,6 +6199,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4595,9 +6244,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$124:$B$128</c:f>
+              <c:f>Documentazione!$B$124:$B$130</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.1.0</c:v>
                 </c:pt>
@@ -4612,16 +6261,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$D$124:$D$128</c:f>
+              <c:f>Documentazione!$D$124:$D$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
@@ -4635,6 +6290,12 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
@@ -4675,9 +6336,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$124:$B$128</c:f>
+              <c:f>Documentazione!$B$124:$B$130</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.1.0</c:v>
                 </c:pt>
@@ -4692,16 +6353,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$E$124:$E$128</c:f>
+              <c:f>Documentazione!$E$124:$E$130</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>80</c:v>
                 </c:pt>
@@ -4715,6 +6382,12 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
@@ -5908,9 +7581,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$167:$B$171</c:f>
+              <c:f>Documentazione!$B$167:$B$173</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.1.0</c:v>
                 </c:pt>
@@ -5925,16 +7598,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$C$167:$C$171</c:f>
+              <c:f>Documentazione!$C$167:$C$173</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>60</c:v>
                 </c:pt>
@@ -5949,6 +7628,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5988,9 +7673,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$167:$B$171</c:f>
+              <c:f>Documentazione!$B$167:$B$173</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.1.0</c:v>
                 </c:pt>
@@ -6005,16 +7690,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$D$167:$D$171</c:f>
+              <c:f>Documentazione!$D$167:$D$173</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
@@ -6028,6 +7719,12 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
@@ -6068,9 +7765,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$167:$B$171</c:f>
+              <c:f>Documentazione!$B$167:$B$173</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.1.0</c:v>
                 </c:pt>
@@ -6085,16 +7782,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$E$167:$E$171</c:f>
+              <c:f>Documentazione!$E$167:$E$173</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>80</c:v>
                 </c:pt>
@@ -6108,6 +7811,12 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
@@ -6655,6 +8364,9 @@
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6923,11 +8635,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Code</a:t>
+              <a:t>User</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> Coverage FE</a:t>
+              <a:t> Manual</a:t>
             </a:r>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
@@ -6937,8 +8649,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37742549143944198"/>
-          <c:y val="2.2650197170030157E-2"/>
+          <c:x val="0.39732260203072839"/>
+          <c:y val="2.2650056625141562E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6981,11 +8693,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Verifica!$D$5</c:f>
+              <c:f>Documentazione!$C$236</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CC</c:v>
+                  <c:v>Andamento indice</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7044,7 +8756,7 @@
                 <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="b"/>
+            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -7073,85 +8785,36 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>Verifica!$C$6:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+            <c:strRef>
+              <c:f>Documentazione!$B$237:$B$239</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>44250</c:v>
+                  <c:v>0.1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44251</c:v>
+                  <c:v>0.2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44252</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44253</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44254</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44255</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44256</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44257</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44258</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44260</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>1.0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$D$6:$D$16</c:f>
+              <c:f>Documentazione!$C$237:$C$239</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.7</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.8</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7159,7 +8822,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B148-4C06-A54A-3EF71AB04CF8}"/>
+              <c16:uniqueId val="{00000000-305B-4265-9048-FC7D18D48D58}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7168,7 +8831,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Verifica!$E$5</c:f>
+              <c:f>Documentazione!$D$236</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7190,85 +8853,36 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Verifica!$C$6:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+            <c:strRef>
+              <c:f>Documentazione!$B$237:$B$239</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>44250</c:v>
+                  <c:v>0.1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44251</c:v>
+                  <c:v>0.2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44252</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44253</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44254</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44255</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44256</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44257</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44258</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44260</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>1.0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$E$6:$E$16</c:f>
+              <c:f>Documentazione!$D$237:$D$239</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.8</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.8</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7276,7 +8890,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B148-4C06-A54A-3EF71AB04CF8}"/>
+              <c16:uniqueId val="{00000001-305B-4265-9048-FC7D18D48D58}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7285,7 +8899,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Verifica!$F$5</c:f>
+              <c:f>Documentazione!$E$236</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7307,85 +8921,36 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Verifica!$C$6:$C$16</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+            <c:strRef>
+              <c:f>Documentazione!$B$237:$B$239</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>44250</c:v>
+                  <c:v>0.1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44251</c:v>
+                  <c:v>0.2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44252</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44253</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44254</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44255</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44256</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44257</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44258</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44260</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>1.0.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$F$6:$F$16</c:f>
+              <c:f>Documentazione!$E$237:$E$239</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7393,7 +8958,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B148-4C06-A54A-3EF71AB04CF8}"/>
+              <c16:uniqueId val="{00000002-305B-4265-9048-FC7D18D48D58}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7410,7 +8975,7 @@
         <c:axId val="365907192"/>
         <c:axId val="365909112"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="365907192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -7438,8 +9003,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>Data</a:t>
+                  <a:t>Versione</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> documento</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -7472,7 +9042,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7512,14 +9082,16 @@
         <c:crossAx val="365909112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="365909112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.4"/>
+          <c:max val="90"/>
+          <c:min val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7537,7 +9109,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" b="0" i="0"/>
+                  <a:t>Indice</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" b="0" i="0" baseline="0"/>
+                  <a:t> Gulpease</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" b="0" i="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7571,6 +9203,7 @@
         <c:crossAx val="365907192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -7635,7 +9268,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr u="none"/>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="it-IT"/>
     </a:p>
@@ -7689,6 +9322,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9080,6 +10793,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
@@ -13512,6 +16257,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>297480</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>156960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Grafico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12A9239B-0DB4-4A36-8B41-4D4E2F5A03B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>297480</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>156960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Grafico 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EFC0A10-070A-46A1-A129-83B47E3AA416}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13893,15 +16714,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AECFA2-8686-4F57-8313-C78888B00A1F}">
-  <dimension ref="B2:P239"/>
+  <dimension ref="B2:P265"/>
   <sheetViews>
-    <sheetView topLeftCell="F155" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122:E128"/>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="F278" sqref="F278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="6" width="20.109375" customWidth="1"/>
@@ -13943,7 +16764,9 @@
       <c r="D3" s="2">
         <v>65</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2">
+        <v>66</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
         <v>40</v>
@@ -13962,7 +16785,9 @@
       <c r="D4" s="2">
         <v>71</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>71</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
         <v>40</v>
@@ -13981,7 +16806,9 @@
       <c r="D5" s="2">
         <v>70</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>71</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
         <v>40</v>
@@ -14000,7 +16827,9 @@
       <c r="D6" s="2">
         <v>68</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2">
+        <v>66</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
         <v>40</v>
@@ -14042,7 +16871,9 @@
       <c r="D8" s="2">
         <v>59</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2">
+        <v>58</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="7">
         <v>40</v>
@@ -14061,7 +16892,9 @@
       <c r="D9" s="2">
         <v>59</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>62</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
         <v>40</v>
@@ -14080,12 +16913,48 @@
       <c r="D10" s="2">
         <v>61</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>60</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
         <v>40</v>
       </c>
       <c r="H10" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
+        <v>72</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>40</v>
+      </c>
+      <c r="H11" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
+        <v>75</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>40</v>
+      </c>
+      <c r="H12" s="2">
         <v>80</v>
       </c>
     </row>
@@ -14323,6 +17192,34 @@
         <v>80</v>
       </c>
     </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="2">
+        <v>66</v>
+      </c>
+      <c r="D66" s="2">
+        <v>40</v>
+      </c>
+      <c r="E66" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="2">
+        <v>66</v>
+      </c>
+      <c r="D67" s="2">
+        <v>40</v>
+      </c>
+      <c r="E67" s="2">
+        <v>80</v>
+      </c>
+    </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D71" s="5"/>
     </row>
@@ -14436,6 +17333,34 @@
         <v>80</v>
       </c>
     </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B88" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88" s="2">
+        <v>69</v>
+      </c>
+      <c r="D88" s="2">
+        <v>40</v>
+      </c>
+      <c r="E88" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B89" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" s="2">
+        <v>71</v>
+      </c>
+      <c r="D89" s="2">
+        <v>40</v>
+      </c>
+      <c r="E89" s="2">
+        <v>80</v>
+      </c>
+    </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" s="1" t="s">
         <v>19</v>
@@ -14531,6 +17456,34 @@
         <v>80</v>
       </c>
     </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B110" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C110" s="2">
+        <v>70</v>
+      </c>
+      <c r="D110" s="2">
+        <v>40</v>
+      </c>
+      <c r="E110" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B111" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C111" s="2">
+        <v>71</v>
+      </c>
+      <c r="D111" s="2">
+        <v>40</v>
+      </c>
+      <c r="E111" s="2">
+        <v>80</v>
+      </c>
+    </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="1" t="s">
         <v>20</v>
@@ -14626,6 +17579,34 @@
         <v>80</v>
       </c>
     </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B129" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C129" s="2">
+        <v>66</v>
+      </c>
+      <c r="D129" s="2">
+        <v>40</v>
+      </c>
+      <c r="E129" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B130" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C130" s="2">
+        <v>66</v>
+      </c>
+      <c r="D130" s="2">
+        <v>40</v>
+      </c>
+      <c r="E130" s="2">
+        <v>80</v>
+      </c>
+    </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B143" s="1" t="s">
         <v>21</v>
@@ -14785,6 +17766,34 @@
         <v>40</v>
       </c>
       <c r="E171" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B172" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C172" s="2">
+        <v>58</v>
+      </c>
+      <c r="D172" s="2">
+        <v>40</v>
+      </c>
+      <c r="E172" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B173" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C173" s="2">
+        <v>58</v>
+      </c>
+      <c r="D173" s="2">
+        <v>40</v>
+      </c>
+      <c r="E173" s="2">
         <v>80</v>
       </c>
     </row>
@@ -14832,7 +17841,9 @@
       <c r="B205" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C205" s="2"/>
+      <c r="C205" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B206" s="16" t="s">
@@ -14846,8 +17857,131 @@
     <row r="224" spans="5:8" x14ac:dyDescent="0.3">
       <c r="H224" s="5"/>
     </row>
-    <row r="239" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E239" s="5"/>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B235" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C235" s="10"/>
+      <c r="D235" s="10"/>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B236" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B237" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C237" s="2">
+        <v>65</v>
+      </c>
+      <c r="D237" s="2">
+        <v>40</v>
+      </c>
+      <c r="E237" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B238" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C238" s="2">
+        <v>67</v>
+      </c>
+      <c r="D238" s="2">
+        <v>40</v>
+      </c>
+      <c r="E238" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B239" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C239" s="2">
+        <v>72</v>
+      </c>
+      <c r="D239" s="2">
+        <v>40</v>
+      </c>
+      <c r="E239" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B261" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C261" s="10"/>
+      <c r="D261" s="10"/>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B262" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B263" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C263" s="2">
+        <v>69</v>
+      </c>
+      <c r="D263" s="2">
+        <v>40</v>
+      </c>
+      <c r="E263" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B264" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C264" s="2">
+        <v>76</v>
+      </c>
+      <c r="D264" s="2">
+        <v>40</v>
+      </c>
+      <c r="E264" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B265" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C265" s="2">
+        <v>75</v>
+      </c>
+      <c r="D265" s="2">
+        <v>40</v>
+      </c>
+      <c r="E265" s="2">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -14867,7 +18001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3418E276-9CB5-4CBF-AFD3-1C3E1A23D165}">
   <dimension ref="C4:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="C6" sqref="C6:C16"/>
     </sheetView>
   </sheetViews>

--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiSupporto.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiSupporto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProcesso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07872C3D-7E2C-4E38-81B4-65CE1E707706}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF129AB4-7496-4DA6-B256-2E14E16A9FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3440947A-BDC3-41E2-B8C4-C01620109B14}"/>
+    <workbookView xWindow="-9168" yWindow="3660" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{3440947A-BDC3-41E2-B8C4-C01620109B14}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentazione" sheetId="1" r:id="rId1"/>
@@ -2352,84 +2352,66 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Verifica!$C$6:$C$16</c:f>
+              <c:f>Verifica!$C$6:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>44250</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44251</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44252</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44253</c:v>
+                  <c:v>44280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44254</c:v>
+                  <c:v>44285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44255</c:v>
+                  <c:v>44290</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44256</c:v>
+                  <c:v>44295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44257</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44258</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44260</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$D$6:$D$16</c:f>
+              <c:f>Verifica!$D$6:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.7</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.8</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2469,52 +2451,43 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Verifica!$C$6:$C$16</c:f>
+              <c:f>Verifica!$C$6:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>44250</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44251</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44252</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44253</c:v>
+                  <c:v>44280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44254</c:v>
+                  <c:v>44285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44255</c:v>
+                  <c:v>44290</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44256</c:v>
+                  <c:v>44295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44257</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44258</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44260</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$E$6:$E$16</c:f>
+              <c:f>Verifica!$E$6:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.8</c:v>
                 </c:pt>
@@ -2537,15 +2510,6 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -2586,52 +2550,43 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Verifica!$C$6:$C$16</c:f>
+              <c:f>Verifica!$C$6:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>44250</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44251</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44252</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44253</c:v>
+                  <c:v>44280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44254</c:v>
+                  <c:v>44285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44255</c:v>
+                  <c:v>44290</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44256</c:v>
+                  <c:v>44295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44257</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44258</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44260</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$F$6:$F$16</c:f>
+              <c:f>Verifica!$F$6:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2654,15 +2609,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2792,12 +2738,13 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="5"/>
+        <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="365909112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3112,54 +3059,45 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Verifica!$C$49:$C$59</c:f>
+              <c:f>Verifica!$C$49:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>44250</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44251</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44252</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44253</c:v>
+                  <c:v>44280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44254</c:v>
+                  <c:v>44285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44255</c:v>
+                  <c:v>44290</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44256</c:v>
+                  <c:v>44295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44257</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44258</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44260</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$D$49:$D$59</c:f>
+              <c:f>Verifica!$D$49:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.7</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.7</c:v>
@@ -3168,27 +3106,18 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -3229,52 +3158,43 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Verifica!$C$49:$C$59</c:f>
+              <c:f>Verifica!$C$49:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>44250</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44251</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44252</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44253</c:v>
+                  <c:v>44280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44254</c:v>
+                  <c:v>44285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44255</c:v>
+                  <c:v>44290</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44256</c:v>
+                  <c:v>44295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44257</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44258</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44260</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$E$49:$E$59</c:f>
+              <c:f>Verifica!$E$49:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0.8</c:v>
                 </c:pt>
@@ -3297,15 +3217,6 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -3346,52 +3257,43 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Verifica!$C$49:$C$59</c:f>
+              <c:f>Verifica!$C$49:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>44250</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44251</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44252</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44253</c:v>
+                  <c:v>44280</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44254</c:v>
+                  <c:v>44285</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44255</c:v>
+                  <c:v>44290</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44256</c:v>
+                  <c:v>44295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44257</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44258</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44260</c:v>
+                  <c:v>44300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$F$49:$F$59</c:f>
+              <c:f>Verifica!$F$49:$F$56</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3414,15 +3316,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3552,6 +3445,8 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="5"/>
+        <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="365909112"/>
@@ -16716,8 +16611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AECFA2-8686-4F57-8313-C78888B00A1F}">
   <dimension ref="B2:P265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="F278" sqref="F278"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18001,8 +17896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3418E276-9CB5-4CBF-AFD3-1C3E1A23D165}">
   <dimension ref="C4:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C16"/>
+    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18038,10 +17933,10 @@
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C6" s="23">
-        <v>44250</v>
+        <v>44265</v>
       </c>
       <c r="D6" s="21">
-        <v>0.7</v>
+        <v>0.83</v>
       </c>
       <c r="E6" s="21">
         <v>0.8</v>
@@ -18054,10 +17949,10 @@
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="23">
-        <v>44251</v>
+        <v>44270</v>
       </c>
       <c r="D7" s="21">
-        <v>0.7</v>
+        <v>0.53</v>
       </c>
       <c r="E7" s="21">
         <v>0.8</v>
@@ -18070,10 +17965,10 @@
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="23">
-        <v>44252</v>
+        <v>44275</v>
       </c>
       <c r="D8" s="21">
-        <v>0.75</v>
+        <v>0.26</v>
       </c>
       <c r="E8" s="21">
         <v>0.8</v>
@@ -18086,10 +17981,10 @@
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="23">
-        <v>44253</v>
+        <v>44280</v>
       </c>
       <c r="D9" s="21">
-        <v>0.8</v>
+        <v>0.53</v>
       </c>
       <c r="E9" s="21">
         <v>0.8</v>
@@ -18102,10 +17997,10 @@
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="23">
-        <v>44254</v>
+        <v>44285</v>
       </c>
       <c r="D10" s="21">
-        <v>0.8</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E10" s="21">
         <v>0.8</v>
@@ -18116,10 +18011,10 @@
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="23">
-        <v>44255</v>
+        <v>44290</v>
       </c>
       <c r="D11" s="21">
-        <v>0.8</v>
+        <v>0.69</v>
       </c>
       <c r="E11" s="21">
         <v>0.8</v>
@@ -18130,10 +18025,10 @@
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" s="23">
-        <v>44256</v>
+        <v>44295</v>
       </c>
       <c r="D12" s="21">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="E12" s="21">
         <v>0.8</v>
@@ -18144,10 +18039,10 @@
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C13" s="23">
-        <v>44257</v>
+        <v>44300</v>
       </c>
       <c r="D13" s="21">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="E13" s="21">
         <v>0.8</v>
@@ -18157,46 +18052,22 @@
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="23">
-        <v>44258</v>
-      </c>
-      <c r="D14" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="E14" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="F14" s="21">
-        <v>1</v>
-      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="23">
-        <v>44259</v>
-      </c>
-      <c r="D15" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="E15" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="F15" s="21">
-        <v>1</v>
-      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="23">
-        <v>44260</v>
-      </c>
-      <c r="D16" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="E16" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="F16" s="21">
-        <v>1</v>
-      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
@@ -18221,10 +18092,10 @@
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" s="23">
-        <v>44250</v>
+        <v>44265</v>
       </c>
       <c r="D49" s="21">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E49" s="21">
         <v>0.8</v>
@@ -18235,7 +18106,7 @@
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" s="23">
-        <v>44251</v>
+        <v>44270</v>
       </c>
       <c r="D50" s="21">
         <v>0.7</v>
@@ -18249,7 +18120,7 @@
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C51" s="23">
-        <v>44252</v>
+        <v>44275</v>
       </c>
       <c r="D51" s="21">
         <v>0.75</v>
@@ -18263,10 +18134,10 @@
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C52" s="23">
-        <v>44253</v>
+        <v>44280</v>
       </c>
       <c r="D52" s="21">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="E52" s="21">
         <v>0.8</v>
@@ -18277,10 +18148,10 @@
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C53" s="23">
-        <v>44254</v>
+        <v>44285</v>
       </c>
       <c r="D53" s="21">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="E53" s="21">
         <v>0.8</v>
@@ -18291,10 +18162,10 @@
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C54" s="23">
-        <v>44255</v>
+        <v>44290</v>
       </c>
       <c r="D54" s="21">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="E54" s="21">
         <v>0.8</v>
@@ -18305,10 +18176,10 @@
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C55" s="23">
-        <v>44256</v>
+        <v>44295</v>
       </c>
       <c r="D55" s="21">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="E55" s="21">
         <v>0.8</v>
@@ -18319,7 +18190,7 @@
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C56" s="23">
-        <v>44257</v>
+        <v>44300</v>
       </c>
       <c r="D56" s="21">
         <v>0.8</v>
@@ -18332,46 +18203,22 @@
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C57" s="23">
-        <v>44258</v>
-      </c>
-      <c r="D57" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="E57" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="F57" s="21">
-        <v>1</v>
-      </c>
+      <c r="C57" s="23"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C58" s="23">
-        <v>44259</v>
-      </c>
-      <c r="D58" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="E58" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="F58" s="21">
-        <v>1</v>
-      </c>
+      <c r="C58" s="23"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C59" s="23">
-        <v>44260</v>
-      </c>
-      <c r="D59" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="E59" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="F59" s="21">
-        <v>1</v>
-      </c>
+      <c r="C59" s="23"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiSupporto.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiSupporto.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProcesso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF129AB4-7496-4DA6-B256-2E14E16A9FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0641C00-F31F-4673-8F22-21BEA9B43675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9168" yWindow="3660" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{3440947A-BDC3-41E2-B8C4-C01620109B14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3440947A-BDC3-41E2-B8C4-C01620109B14}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentazione" sheetId="1" r:id="rId1"/>
     <sheet name="Verifica" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="47">
   <si>
     <t>Indice Gulpease</t>
   </si>
@@ -163,6 +166,18 @@
   </si>
   <si>
     <t>Developer Manual gulpease</t>
+  </si>
+  <si>
+    <t>Copertura requisiti nei test</t>
+  </si>
+  <si>
+    <t>MTS1</t>
+  </si>
+  <si>
+    <t>Percentuale test passati</t>
+  </si>
+  <si>
+    <t>MTS2</t>
   </si>
 </sst>
 </file>
@@ -316,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -350,6 +365,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2205,7 +2221,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> Coverage FE</a:t>
+              <a:t> Coverage Front-end</a:t>
             </a:r>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
@@ -2215,7 +2231,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37742549143944198"/>
+          <c:x val="0.35729232720355103"/>
           <c:y val="2.2650197170030157E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2912,7 +2928,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> Coverage BE</a:t>
+              <a:t> Coverage Back-end</a:t>
             </a:r>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
@@ -3453,6 +3469,1262 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365907192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr u="none"/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Copertura</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> requisiti nei test</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30179401817797508"/>
+          <c:y val="2.2650197170030157E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Verifica!$D$96</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MTS1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Verifica!$C$97:$C$100</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Verifica!$D$97:$D$100</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="2">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F40F-4F96-91DA-A04B08C0B2C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="400"/>
+        <c:axId val="365907192"/>
+        <c:axId val="365909112"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Verifica!$E$96</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ottimale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Verifica!$C$97:$C$100</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>VC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Verifica!$E$97:$E$100</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F40F-4F96-91DA-A04B08C0B2C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="365907192"/>
+        <c:axId val="365909112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="365907192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Periodo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365909112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="365909112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365907192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Percentuale</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> test passati</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37742549143944198"/>
+          <c:y val="2.2650197170030157E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Verifica!$D$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MTS2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Verifica!$C$140:$C$147</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>44265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44275</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44285</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44290</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44295</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Verifica!$D$140:$D$147</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A238-4A08-A09A-36B1CD676DF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Verifica!$E$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accettabile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Verifica!$C$140:$C$147</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>44265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44275</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44285</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44290</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44295</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Verifica!$E$140:$E$147</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A238-4A08-A09A-36B1CD676DF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Verifica!$F$139</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ottimale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Verifica!$C$140:$C$147</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>44265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44275</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44285</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44290</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44295</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Verifica!$F$140:$F$147</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A238-4A08-A09A-36B1CD676DF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="365907192"/>
+        <c:axId val="365909112"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="365907192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Data</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365909112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="5"/>
+        <c:majorTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="365909112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9336,6 +10608,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -11205,6 +12557,1038 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16309,7 +18693,163 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419400</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>156960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B4CF4B-64FF-4D69-B9A5-3F459145C2AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>442260</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>156960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4850A0A9-30A8-4C01-B95B-52761E5AB075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Pianificazione"/>
+      <sheetName val="GestioneQualità"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>PMS</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>Accettabile</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>Ottimale</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+          <cell r="E7">
+            <v>0.6</v>
+          </cell>
+          <cell r="F7">
+            <v>0.8</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>PA</v>
+          </cell>
+          <cell r="D8">
+            <v>1</v>
+          </cell>
+          <cell r="E8">
+            <v>0.6</v>
+          </cell>
+          <cell r="F8">
+            <v>0.8</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>PD</v>
+          </cell>
+          <cell r="D9">
+            <v>0.90476190476190477</v>
+          </cell>
+          <cell r="E9">
+            <v>0.6</v>
+          </cell>
+          <cell r="F9">
+            <v>0.8</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>VC</v>
+          </cell>
+          <cell r="E10">
+            <v>0.6</v>
+          </cell>
+          <cell r="F10">
+            <v>0.8</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16611,8 +19151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AECFA2-8686-4F57-8313-C78888B00A1F}">
   <dimension ref="B2:P265"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="B293" sqref="B293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17894,10 +20434,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3418E276-9CB5-4CBF-AFD3-1C3E1A23D165}">
-  <dimension ref="C4:H59"/>
+  <dimension ref="C4:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView tabSelected="1" topLeftCell="B96" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18220,6 +20760,224 @@
       <c r="E59" s="21"/>
       <c r="F59" s="21"/>
     </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C95" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="G95" s="20"/>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C96" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+    </row>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C97" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21">
+        <v>1</v>
+      </c>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C98" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21">
+        <v>1</v>
+      </c>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C99" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D99" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="E99" s="21">
+        <v>1</v>
+      </c>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C100" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D100" s="27"/>
+      <c r="E100" s="21">
+        <v>1</v>
+      </c>
+      <c r="G100" s="22"/>
+      <c r="H100" s="22"/>
+    </row>
+    <row r="138" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C138" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+    </row>
+    <row r="139" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C139" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C140" s="23">
+        <v>44265</v>
+      </c>
+      <c r="D140" s="21">
+        <v>1</v>
+      </c>
+      <c r="E140" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="F140" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C141" s="23">
+        <v>44270</v>
+      </c>
+      <c r="D141" s="21">
+        <v>1</v>
+      </c>
+      <c r="E141" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="F141" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C142" s="23">
+        <v>44275</v>
+      </c>
+      <c r="D142" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="E142" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="F142" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C143" s="23">
+        <v>44280</v>
+      </c>
+      <c r="D143" s="21">
+        <v>0.93</v>
+      </c>
+      <c r="E143" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="F143" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C144" s="23">
+        <v>44285</v>
+      </c>
+      <c r="D144" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="E144" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="F144" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C145" s="23">
+        <v>44290</v>
+      </c>
+      <c r="D145" s="21">
+        <v>0.94</v>
+      </c>
+      <c r="E145" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="F145" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C146" s="23">
+        <v>44295</v>
+      </c>
+      <c r="D146" s="21">
+        <v>1</v>
+      </c>
+      <c r="E146" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="F146" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C147" s="23">
+        <v>44300</v>
+      </c>
+      <c r="D147" s="21">
+        <v>1</v>
+      </c>
+      <c r="E147" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="F147" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C148" s="23"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="21"/>
+      <c r="F148" s="21"/>
+    </row>
+    <row r="149" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C149" s="23"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="21"/>
+      <c r="F149" s="21"/>
+    </row>
+    <row r="150" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C150" s="23"/>
+      <c r="D150" s="21"/>
+      <c r="E150" s="21"/>
+      <c r="F150" s="21"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiSupporto.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiSupporto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProcesso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0641C00-F31F-4673-8F22-21BEA9B43675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87936D5A-4195-420C-9536-3A8A107A5AB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3440947A-BDC3-41E2-B8C4-C01620109B14}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="Documentazione" sheetId="1" r:id="rId1"/>
     <sheet name="Verifica" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="53">
   <si>
     <t>Indice Gulpease</t>
   </si>
@@ -178,6 +175,24 @@
   </si>
   <si>
     <t>MTS2</t>
+  </si>
+  <si>
+    <t>Incremento 5</t>
+  </si>
+  <si>
+    <t>Incremento 6</t>
+  </si>
+  <si>
+    <t>Incremento 7</t>
+  </si>
+  <si>
+    <t>Incremento 8</t>
+  </si>
+  <si>
+    <t>Incremento 9</t>
+  </si>
+  <si>
+    <t>Incremento 10</t>
   </si>
 </sst>
 </file>
@@ -348,7 +363,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -365,7 +379,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2367,44 +2382,40 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Verifica!$C$6:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$D$6:$D$13</c:f>
+              <c:f>Verifica!$D$6:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.83</c:v>
                 </c:pt>
@@ -2415,7 +2426,7 @@
                   <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.56999999999999995</c:v>
@@ -2424,9 +2435,6 @@
                   <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.81</c:v>
                 </c:pt>
               </c:numCache>
@@ -2466,44 +2474,40 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Verifica!$C$6:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$E$6:$E$13</c:f>
+              <c:f>Verifica!$E$6:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.8</c:v>
                 </c:pt>
@@ -2523,9 +2527,6 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -2565,44 +2566,40 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Verifica!$C$6:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$F$6:$F$13</c:f>
+              <c:f>Verifica!$F$6:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2622,9 +2619,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2650,7 +2644,7 @@
         <c:axId val="365907192"/>
         <c:axId val="365909112"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="365907192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -2678,7 +2672,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>Data</a:t>
+                  <a:t>Periodo</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2712,7 +2706,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2752,11 +2746,10 @@
         <c:crossAx val="365909112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="5"/>
-        <c:majorTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="365909112"/>
         <c:scaling>
@@ -3074,44 +3067,40 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Verifica!$C$49:$C$56</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$D$49:$D$56</c:f>
+              <c:f>Verifica!$D$49:$D$55</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -3125,15 +3114,12 @@
                   <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -3173,44 +3159,40 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Verifica!$C$49:$C$56</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$E$49:$E$56</c:f>
+              <c:f>Verifica!$E$49:$E$55</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.8</c:v>
                 </c:pt>
@@ -3230,9 +3212,6 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -3272,44 +3251,40 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Verifica!$C$49:$C$56</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$F$49:$F$56</c:f>
+              <c:f>Verifica!$F$49:$F$55</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3329,9 +3304,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3357,7 +3329,7 @@
         <c:axId val="365907192"/>
         <c:axId val="365909112"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="365907192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -3385,7 +3357,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>Data</a:t>
+                  <a:t>Periodo</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3419,7 +3391,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3459,11 +3431,10 @@
         <c:crossAx val="365909112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="5"/>
-        <c:majorTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="365909112"/>
         <c:scaling>
@@ -3769,31 +3740,58 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Verifica!$C$97:$C$100</c:f>
+              <c:f>Verifica!$C$99:$C$105</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>PA</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Incremento 7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Incremento 8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Incremento 9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>PD</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>VC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$D$97:$D$100</c:f>
+              <c:f>Verifica!$D$99:$D$105</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67</c:v>
+                </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.95</c:v>
                 </c:pt>
               </c:numCache>
@@ -3848,30 +3846,39 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Verifica!$C$97:$C$100</c:f>
+              <c:f>Verifica!$C$99:$C$105</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>A</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>PA</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Incremento 7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Incremento 8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Incremento 9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>PD</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>VC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$E$97:$E$100</c:f>
+              <c:f>Verifica!$E$99:$E$105</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3882,6 +3889,15 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -4331,67 +4347,60 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>Verifica!$C$140:$C$147</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>Verifica!$C$140:$C$146</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$D$140:$D$147</c:f>
+              <c:f>Verifica!$D$140:$D$146</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.94</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4430,44 +4439,40 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Verifica!$C$140:$C$147</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>Verifica!$C$140:$C$146</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$E$140:$E$147</c:f>
+              <c:f>Verifica!$E$140:$E$146</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.85</c:v>
                 </c:pt>
@@ -4487,9 +4492,6 @@
                   <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.85</c:v>
                 </c:pt>
               </c:numCache>
@@ -4529,44 +4531,40 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Verifica!$C$140:$C$147</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="8"/>
+            <c:strRef>
+              <c:f>Verifica!$C$140:$C$146</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44265</c:v>
+                  <c:v>Incremento 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44270</c:v>
+                  <c:v>Incremento 6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44275</c:v>
+                  <c:v>Incremento 7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44280</c:v>
+                  <c:v>Incremento 8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44285</c:v>
+                  <c:v>Incremento 9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44290</c:v>
+                  <c:v>Incremento 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44295</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>PD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$F$140:$F$147</c:f>
+              <c:f>Verifica!$F$140:$F$146</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4586,9 +4584,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -4614,7 +4609,7 @@
         <c:axId val="365907192"/>
         <c:axId val="365909112"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="365907192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -4642,7 +4637,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>Data</a:t>
+                  <a:t>Periodo</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4676,7 +4671,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="yyyy\-mm\-dd;@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4716,11 +4711,10 @@
         <c:crossAx val="365909112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="5"/>
-        <c:majorTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="365909112"/>
         <c:scaling>
@@ -9501,9 +9495,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$203:$B$206</c:f>
+              <c:f>Documentazione!$B$203:$B$211</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>A</c:v>
                 </c:pt>
@@ -9511,20 +9505,35 @@
                   <c:v>PA</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Incremento 5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Incremento 6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Incremento 7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Incremento 8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>PD</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>VC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$C$203:$C$206</c:f>
+              <c:f>Documentazione!$C$203:$C$211</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9532,6 +9541,24 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -18772,86 +18799,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Pianificazione"/>
-      <sheetName val="GestioneQualità"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="6">
-          <cell r="D6" t="str">
-            <v>PMS</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>Accettabile</v>
-          </cell>
-          <cell r="F6" t="str">
-            <v>Ottimale</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="D7">
-            <v>1</v>
-          </cell>
-          <cell r="E7">
-            <v>0.6</v>
-          </cell>
-          <cell r="F7">
-            <v>0.8</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>PA</v>
-          </cell>
-          <cell r="D8">
-            <v>1</v>
-          </cell>
-          <cell r="E8">
-            <v>0.6</v>
-          </cell>
-          <cell r="F8">
-            <v>0.8</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9" t="str">
-            <v>PD</v>
-          </cell>
-          <cell r="D9">
-            <v>0.90476190476190477</v>
-          </cell>
-          <cell r="E9">
-            <v>0.6</v>
-          </cell>
-          <cell r="F9">
-            <v>0.8</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10" t="str">
-            <v>VC</v>
-          </cell>
-          <cell r="E10">
-            <v>0.6</v>
-          </cell>
-          <cell r="F10">
-            <v>0.8</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
@@ -19151,8 +19098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AECFA2-8686-4F57-8313-C78888B00A1F}">
   <dimension ref="B2:P265"/>
   <sheetViews>
-    <sheetView topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="B293" sqref="B293"/>
+    <sheetView topLeftCell="D232" workbookViewId="0">
+      <selection activeCell="C205" sqref="C205:C211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19397,18 +19344,18 @@
       <c r="G13" s="5"/>
     </row>
     <row r="16" spans="2:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="25" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="18"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -19416,7 +19363,7 @@
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="18"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -19424,7 +19371,7 @@
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="18"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -19432,7 +19379,7 @@
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="18"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -19440,7 +19387,7 @@
       <c r="G20" s="12"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="18"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -19448,7 +19395,7 @@
       <c r="G21" s="12"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="18"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -19456,15 +19403,15 @@
       <c r="G22" s="12"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="18"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -19472,7 +19419,7 @@
       <c r="G34" s="12"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="18"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -19480,7 +19427,7 @@
       <c r="G35" s="12"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="18"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -19488,10 +19435,10 @@
       <c r="G36" s="12"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="8"/>
@@ -19510,12 +19457,12 @@
       <c r="G50" s="9"/>
     </row>
     <row r="53" spans="2:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="E53" s="25" t="s">
+      <c r="E53" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="25"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
@@ -19537,7 +19484,7 @@
       <c r="E59" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F59" s="18"/>
+      <c r="F59" s="17"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="11" t="s">
@@ -19675,10 +19622,10 @@
       <c r="D81" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E81" s="19" t="s">
+      <c r="E81" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F81" s="18"/>
+      <c r="F81" s="17"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="11" t="s">
@@ -19816,7 +19763,7 @@
       <c r="E104" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F104" s="18"/>
+      <c r="F104" s="17"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B105" s="11" t="s">
@@ -19939,7 +19886,7 @@
       <c r="E123" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F123" s="18"/>
+      <c r="F123" s="17"/>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B124" s="11" t="s">
@@ -20062,7 +20009,7 @@
       <c r="E144" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F144" s="18"/>
+      <c r="F144" s="17"/>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B145" s="11" t="s">
@@ -20129,7 +20076,7 @@
       <c r="E166" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F166" s="18"/>
+      <c r="F166" s="17"/>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B167" s="11" t="s">
@@ -20233,12 +20180,12 @@
       </c>
     </row>
     <row r="198" spans="2:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="E198" s="25" t="s">
+      <c r="E198" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F198" s="25"/>
-      <c r="G198" s="24"/>
-      <c r="H198" s="24"/>
+      <c r="F198" s="24"/>
+      <c r="G198" s="23"/>
+      <c r="H198" s="23"/>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H200" s="9"/>
@@ -20273,23 +20220,65 @@
       </c>
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B205" s="2" t="s">
-        <v>30</v>
+      <c r="B205" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B206" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C206" s="2"/>
+      <c r="B206" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C206" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="215" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B207" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C207" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B208" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C208" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B209" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C209" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B210" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C210" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B211" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C211" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E215" s="5"/>
     </row>
-    <row r="224" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H224" s="5"/>
     </row>
     <row r="235" spans="2:5" x14ac:dyDescent="0.3">
@@ -20436,8 +20425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3418E276-9CB5-4CBF-AFD3-1C3E1A23D165}">
   <dimension ref="C4:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B96" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView tabSelected="1" topLeftCell="B154" workbookViewId="0">
+      <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20453,7 +20442,7 @@
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
-      <c r="G4" s="20"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
@@ -20468,146 +20457,135 @@
       <c r="F5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="23">
-        <v>44265</v>
-      </c>
-      <c r="D6" s="21">
+      <c r="C6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="20">
         <v>0.83</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>0.8</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>1</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="23">
-        <v>44270</v>
-      </c>
-      <c r="D7" s="21">
+      <c r="C7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="20">
         <v>0.53</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>0.8</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="20">
         <v>1</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C8" s="23">
-        <v>44275</v>
-      </c>
-      <c r="D8" s="21">
+      <c r="C8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="20">
         <v>0.26</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>0.8</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>1</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C9" s="23">
-        <v>44280</v>
-      </c>
-      <c r="D9" s="21">
-        <v>0.53</v>
-      </c>
-      <c r="E9" s="21">
+      <c r="C9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E9" s="20">
         <v>0.8</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <v>1</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C10" s="23">
-        <v>44285</v>
-      </c>
-      <c r="D10" s="21">
+      <c r="C10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="20">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <v>0.8</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="23">
-        <v>44290</v>
-      </c>
-      <c r="D11" s="21">
+      <c r="C11" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="20">
         <v>0.69</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="20">
         <v>0.8</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="23">
-        <v>44295</v>
-      </c>
-      <c r="D12" s="21">
-        <v>0.64</v>
-      </c>
-      <c r="E12" s="21">
+      <c r="C12" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0.81</v>
+      </c>
+      <c r="E12" s="20">
         <v>0.8</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="23">
-        <v>44300</v>
-      </c>
-      <c r="D13" s="21">
-        <v>0.81</v>
-      </c>
-      <c r="E13" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="F13" s="21">
-        <v>1</v>
-      </c>
+      <c r="C13" s="22"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="23"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="23"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="23"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
@@ -20631,134 +20609,123 @@
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C49" s="23">
-        <v>44265</v>
-      </c>
-      <c r="D49" s="21">
+      <c r="C49" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="20">
         <v>0.6</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="20">
         <v>0.8</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F49" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C50" s="23">
-        <v>44270</v>
-      </c>
-      <c r="D50" s="21">
+      <c r="C50" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="20">
         <v>0.7</v>
       </c>
-      <c r="E50" s="21">
+      <c r="E50" s="20">
         <v>0.8</v>
       </c>
-      <c r="F50" s="21">
+      <c r="F50" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C51" s="23">
-        <v>44275</v>
-      </c>
-      <c r="D51" s="21">
+      <c r="C51" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="20">
         <v>0.75</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E51" s="20">
         <v>0.8</v>
       </c>
-      <c r="F51" s="21">
+      <c r="F51" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C52" s="23">
-        <v>44280</v>
-      </c>
-      <c r="D52" s="21">
+      <c r="C52" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="20">
         <v>0.86</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="20">
         <v>0.8</v>
       </c>
-      <c r="F52" s="21">
+      <c r="F52" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C53" s="23">
-        <v>44285</v>
-      </c>
-      <c r="D53" s="21">
-        <v>0.79</v>
-      </c>
-      <c r="E53" s="21">
+      <c r="C53" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="20">
+        <v>0.86</v>
+      </c>
+      <c r="E53" s="20">
         <v>0.8</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F53" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C54" s="23">
-        <v>44290</v>
-      </c>
-      <c r="D54" s="21">
+      <c r="C54" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="20">
         <v>0.83</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="20">
         <v>0.8</v>
       </c>
-      <c r="F54" s="21">
+      <c r="F54" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C55" s="23">
-        <v>44295</v>
-      </c>
-      <c r="D55" s="21">
-        <v>0.76</v>
-      </c>
-      <c r="E55" s="21">
+      <c r="C55" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="20">
         <v>0.8</v>
       </c>
-      <c r="F55" s="21">
+      <c r="E55" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="F55" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C56" s="23">
-        <v>44300</v>
-      </c>
-      <c r="D56" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="E56" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="F56" s="21">
-        <v>1</v>
-      </c>
+      <c r="C56" s="22"/>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C57" s="23"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C58" s="23"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C59" s="23"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
     </row>
     <row r="95" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
@@ -20766,7 +20733,7 @@
       </c>
       <c r="D95" s="10"/>
       <c r="E95" s="10"/>
-      <c r="G95" s="20"/>
+      <c r="G95" s="19"/>
     </row>
     <row r="96" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C96" s="4" t="s">
@@ -20778,54 +20745,111 @@
       <c r="E96" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
     </row>
     <row r="97" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C97" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D97" s="21"/>
-      <c r="E97" s="21">
+      <c r="D97" s="20"/>
+      <c r="E97" s="20">
         <v>1</v>
       </c>
-      <c r="G97" s="22"/>
-      <c r="H97" s="22"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
     </row>
     <row r="98" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C98" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D98" s="21"/>
-      <c r="E98" s="21">
+      <c r="D98" s="20"/>
+      <c r="E98" s="20">
         <v>1</v>
       </c>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
     </row>
     <row r="99" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C99" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D99" s="21">
-        <v>0.95</v>
-      </c>
-      <c r="E99" s="21">
+        <v>47</v>
+      </c>
+      <c r="D99" s="20">
+        <v>0.52</v>
+      </c>
+      <c r="E99" s="20">
         <v>1</v>
       </c>
-      <c r="G99" s="22"/>
-      <c r="H99" s="22"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
     </row>
     <row r="100" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C100" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D100" s="27"/>
-      <c r="E100" s="21">
+        <v>48</v>
+      </c>
+      <c r="D100" s="20">
+        <v>0.67</v>
+      </c>
+      <c r="E100" s="20">
         <v>1</v>
       </c>
-      <c r="G100" s="22"/>
-      <c r="H100" s="22"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+    </row>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C101" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D101" s="20">
+        <v>0.86</v>
+      </c>
+      <c r="E101" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C102" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D102" s="20">
+        <v>0.95</v>
+      </c>
+      <c r="E102" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C103" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D103" s="20">
+        <v>0.95</v>
+      </c>
+      <c r="E103" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C104" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D104" s="20">
+        <v>0.95</v>
+      </c>
+      <c r="E104" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C105" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105" s="20">
+        <v>0.95</v>
+      </c>
+      <c r="E105" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="138" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C138" s="1" t="s">
@@ -20849,134 +20873,134 @@
       </c>
     </row>
     <row r="140" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C140" s="23">
-        <v>44265</v>
-      </c>
-      <c r="D140" s="21">
+      <c r="C140" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D140" s="20">
         <v>1</v>
       </c>
-      <c r="E140" s="21">
+      <c r="E140" s="20">
         <v>0.85</v>
       </c>
-      <c r="F140" s="21">
+      <c r="F140" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C141" s="23">
-        <v>44270</v>
-      </c>
-      <c r="D141" s="21">
-        <v>1</v>
-      </c>
-      <c r="E141" s="21">
+      <c r="C141" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D141" s="20">
+        <v>0.88</v>
+      </c>
+      <c r="E141" s="20">
         <v>0.85</v>
       </c>
-      <c r="F141" s="21">
+      <c r="F141" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C142" s="23">
-        <v>44275</v>
-      </c>
-      <c r="D142" s="21">
+      <c r="C142" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D142" s="20">
         <v>0.9</v>
       </c>
-      <c r="E142" s="21">
+      <c r="E142" s="20">
         <v>0.85</v>
       </c>
-      <c r="F142" s="21">
+      <c r="F142" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C143" s="23">
-        <v>44280</v>
-      </c>
-      <c r="D143" s="21">
-        <v>0.93</v>
-      </c>
-      <c r="E143" s="21">
+      <c r="C143" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D143" s="20">
+        <v>0.95</v>
+      </c>
+      <c r="E143" s="20">
         <v>0.85</v>
       </c>
-      <c r="F143" s="21">
+      <c r="F143" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C144" s="23">
-        <v>44285</v>
-      </c>
-      <c r="D144" s="21">
+      <c r="C144" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D144" s="20">
         <v>0.95</v>
       </c>
-      <c r="E144" s="21">
+      <c r="E144" s="20">
         <v>0.85</v>
       </c>
-      <c r="F144" s="21">
+      <c r="F144" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C145" s="23">
-        <v>44290</v>
-      </c>
-      <c r="D145" s="21">
-        <v>0.94</v>
-      </c>
-      <c r="E145" s="21">
+      <c r="C145" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D145" s="27">
+        <v>0.92</v>
+      </c>
+      <c r="E145" s="20">
         <v>0.85</v>
       </c>
-      <c r="F145" s="21">
+      <c r="F145" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C146" s="23">
-        <v>44295</v>
-      </c>
-      <c r="D146" s="21">
-        <v>1</v>
-      </c>
-      <c r="E146" s="21">
+      <c r="C146" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D146" s="20">
+        <v>0.94</v>
+      </c>
+      <c r="E146" s="20">
         <v>0.85</v>
       </c>
-      <c r="F146" s="21">
+      <c r="F146" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C147" s="23">
+      <c r="C147" s="22">
         <v>44300</v>
       </c>
-      <c r="D147" s="21">
+      <c r="D147" s="20">
         <v>1</v>
       </c>
-      <c r="E147" s="21">
+      <c r="E147" s="20">
         <v>0.85</v>
       </c>
-      <c r="F147" s="21">
+      <c r="F147" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C148" s="23"/>
-      <c r="D148" s="21"/>
-      <c r="E148" s="21"/>
-      <c r="F148" s="21"/>
+      <c r="C148" s="22"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="20"/>
+      <c r="F148" s="20"/>
     </row>
     <row r="149" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C149" s="23"/>
-      <c r="D149" s="21"/>
-      <c r="E149" s="21"/>
-      <c r="F149" s="21"/>
+      <c r="C149" s="22"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="20"/>
+      <c r="F149" s="20"/>
     </row>
     <row r="150" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C150" s="23"/>
-      <c r="D150" s="21"/>
-      <c r="E150" s="21"/>
-      <c r="F150" s="21"/>
+      <c r="C150" s="22"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiSupporto.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiSupporto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProcesso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87936D5A-4195-420C-9536-3A8A107A5AB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1D6698-FC33-413D-8C9D-29BA44EA4206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3440947A-BDC3-41E2-B8C4-C01620109B14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3440947A-BDC3-41E2-B8C4-C01620109B14}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentazione" sheetId="1" r:id="rId1"/>
@@ -370,6 +370,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -379,8 +381,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2288,17 +2288,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Verifica!$D$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2383,9 +2372,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Verifica!$C$6:$C$13</c:f>
+              <c:f>Verifica!$C$6:$C$11</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -2403,19 +2392,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$D$6:$D$12</c:f>
+              <c:f>Verifica!$D$6:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.83</c:v>
                 </c:pt>
@@ -2432,9 +2418,6 @@
                   <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.81</c:v>
                 </c:pt>
               </c:numCache>
@@ -2450,17 +2433,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Verifica!$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Accettabile</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2475,9 +2447,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Verifica!$C$6:$C$13</c:f>
+              <c:f>Verifica!$C$6:$C$11</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -2495,19 +2467,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$E$6:$E$12</c:f>
+              <c:f>Verifica!$E$6:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.8</c:v>
                 </c:pt>
@@ -2524,9 +2493,6 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -2535,24 +2501,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B148-4C06-A54A-3EF71AB04CF8}"/>
+              <c16:uniqueId val="{00000001-41EF-4C29-93E5-75422612C4BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Verifica!$F$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ottimale</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2567,9 +2522,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Verifica!$C$6:$C$13</c:f>
+              <c:f>Verifica!$C$6:$C$11</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -2587,19 +2542,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$F$6:$F$12</c:f>
+              <c:f>Verifica!$F$6:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2616,9 +2568,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2627,7 +2576,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B148-4C06-A54A-3EF71AB04CF8}"/>
+              <c16:uniqueId val="{00000002-41EF-4C29-93E5-75422612C4BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2973,17 +2922,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Verifica!$D$48</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3068,9 +3006,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Verifica!$C$49:$C$56</c:f>
+              <c:f>Verifica!$C$49:$C$54</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -3088,19 +3026,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$D$49:$D$55</c:f>
+              <c:f>Verifica!$D$49:$D$54</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -3117,9 +3052,6 @@
                   <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -3135,17 +3067,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Verifica!$E$48</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Accettabile</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3160,9 +3081,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Verifica!$C$49:$C$56</c:f>
+              <c:f>Verifica!$C$49:$C$54</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -3180,19 +3101,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$E$49:$E$55</c:f>
+              <c:f>Verifica!$E$49:$E$54</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.8</c:v>
                 </c:pt>
@@ -3209,9 +3127,6 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -3227,17 +3142,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Verifica!$F$48</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ottimale</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3252,9 +3156,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Verifica!$C$49:$C$56</c:f>
+              <c:f>Verifica!$C$49:$C$54</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -3272,19 +3176,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$F$49:$F$55</c:f>
+              <c:f>Verifica!$F$49:$F$54</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3301,9 +3202,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3740,9 +3638,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Verifica!$C$99:$C$105</c:f>
+              <c:f>Verifica!$C$99:$C$104</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -3760,19 +3658,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$D$99:$D$105</c:f>
+              <c:f>Verifica!$D$99:$D$104</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.52</c:v>
                 </c:pt>
@@ -3789,9 +3684,6 @@
                   <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.95</c:v>
                 </c:pt>
               </c:numCache>
@@ -3846,9 +3738,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Verifica!$C$99:$C$105</c:f>
+              <c:f>Verifica!$C$99:$C$104</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -3866,19 +3758,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$E$99:$E$105</c:f>
+              <c:f>Verifica!$E$99:$E$104</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3895,9 +3784,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -4348,9 +4234,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Verifica!$C$140:$C$146</c:f>
+              <c:f>Verifica!$C$140:$C$145</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -4368,19 +4254,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$D$140:$D$146</c:f>
+              <c:f>Verifica!$D$140:$D$145</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4398,9 +4281,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4440,9 +4320,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Verifica!$C$140:$C$146</c:f>
+              <c:f>Verifica!$C$140:$C$145</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -4460,19 +4340,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$E$140:$E$146</c:f>
+              <c:f>Verifica!$E$140:$E$145</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.85</c:v>
                 </c:pt>
@@ -4489,9 +4366,6 @@
                   <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0.85</c:v>
                 </c:pt>
               </c:numCache>
@@ -4532,9 +4406,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Verifica!$C$140:$C$146</c:f>
+              <c:f>Verifica!$C$140:$C$145</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -4552,19 +4426,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$F$140:$F$146</c:f>
+              <c:f>Verifica!$F$140:$F$145</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4581,9 +4452,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -9495,9 +9363,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$203:$B$211</c:f>
+              <c:f>Documentazione!$B$203:$B$210</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>A</c:v>
                 </c:pt>
@@ -9521,19 +9389,16 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Incremento 10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>PD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$C$203:$C$211</c:f>
+              <c:f>Documentazione!$C$203:$C$210</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9556,9 +9421,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -19098,7 +18960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AECFA2-8686-4F57-8313-C78888B00A1F}">
   <dimension ref="B2:P265"/>
   <sheetViews>
-    <sheetView topLeftCell="D232" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
       <selection activeCell="C205" sqref="C205:C211"/>
     </sheetView>
   </sheetViews>
@@ -19346,13 +19208,13 @@
     <row r="16" spans="2:16" ht="21" x14ac:dyDescent="0.4">
       <c r="B16" s="16"/>
       <c r="C16" s="17"/>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="17"/>
@@ -19435,10 +19297,10 @@
       <c r="G36" s="12"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="8"/>
@@ -19457,12 +19319,12 @@
       <c r="G50" s="9"/>
     </row>
     <row r="53" spans="2:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="E53" s="24" t="s">
+      <c r="E53" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="24"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
@@ -20180,12 +20042,12 @@
       </c>
     </row>
     <row r="198" spans="2:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="E198" s="24" t="s">
+      <c r="E198" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F198" s="24"/>
-      <c r="G198" s="23"/>
-      <c r="H198" s="23"/>
+      <c r="F198" s="26"/>
+      <c r="G198" s="25"/>
+      <c r="H198" s="25"/>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H200" s="9"/>
@@ -20260,7 +20122,7 @@
       </c>
     </row>
     <row r="210" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B210" s="26" t="s">
+      <c r="B210" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C210" s="2">
@@ -20268,7 +20130,7 @@
       </c>
     </row>
     <row r="211" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B211" s="26" t="s">
+      <c r="B211" s="23" t="s">
         <v>30</v>
       </c>
       <c r="C211" s="2">
@@ -20425,8 +20287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3418E276-9CB5-4CBF-AFD3-1C3E1A23D165}">
   <dimension ref="C4:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B154" workbookViewId="0">
-      <selection activeCell="D150" sqref="D150"/>
+    <sheetView topLeftCell="B139" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20539,11 +20401,11 @@
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="23" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="20">
-        <v>0.69</v>
+        <v>0.81</v>
       </c>
       <c r="E11" s="20">
         <v>0.8</v>
@@ -20553,7 +20415,7 @@
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="20">
@@ -20679,11 +20541,11 @@
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="23" t="s">
         <v>52</v>
       </c>
       <c r="D54" s="20">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="E54" s="20">
         <v>0.8</v>
@@ -20693,7 +20555,7 @@
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D55" s="20">
@@ -20830,7 +20692,7 @@
       </c>
     </row>
     <row r="104" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C104" s="26" t="s">
+      <c r="C104" s="23" t="s">
         <v>52</v>
       </c>
       <c r="D104" s="20">
@@ -20841,7 +20703,7 @@
       </c>
     </row>
     <row r="105" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C105" s="26" t="s">
+      <c r="C105" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D105" s="20">
@@ -20943,10 +20805,10 @@
       </c>
     </row>
     <row r="145" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C145" s="26" t="s">
+      <c r="C145" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D145" s="27">
+      <c r="D145" s="24">
         <v>0.92</v>
       </c>
       <c r="E145" s="20">
@@ -20957,7 +20819,7 @@
       </c>
     </row>
     <row r="146" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C146" s="26" t="s">
+      <c r="C146" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D146" s="20">

--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiSupporto.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiSupporto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProcesso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1D6698-FC33-413D-8C9D-29BA44EA4206}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C214C73-5F28-436A-8F2B-604094DEB7F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3440947A-BDC3-41E2-B8C4-C01620109B14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3440947A-BDC3-41E2-B8C4-C01620109B14}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentazione" sheetId="1" r:id="rId1"/>
@@ -2288,6 +2288,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Verifica!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2433,6 +2444,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Verifica!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accettabile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2501,13 +2523,24 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-41EF-4C29-93E5-75422612C4BD}"/>
+              <c16:uniqueId val="{00000001-E175-46E8-9F87-684C9C655D81}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Verifica!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ottimale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2576,7 +2609,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-41EF-4C29-93E5-75422612C4BD}"/>
+              <c16:uniqueId val="{00000002-E175-46E8-9F87-684C9C655D81}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2922,6 +2955,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Verifica!$D$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3067,6 +3111,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Verifica!$E$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accettabile</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3142,6 +3197,17 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Verifica!$F$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ottimale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -18960,7 +19026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AECFA2-8686-4F57-8313-C78888B00A1F}">
   <dimension ref="B2:P265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+    <sheetView topLeftCell="A196" workbookViewId="0">
       <selection activeCell="C205" sqref="C205:C211"/>
     </sheetView>
   </sheetViews>
@@ -20287,7 +20353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3418E276-9CB5-4CBF-AFD3-1C3E1A23D165}">
   <dimension ref="C4:H150"/>
   <sheetViews>
-    <sheetView topLeftCell="B139" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>

--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiSupporto.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiSupporto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProcesso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C214C73-5F28-436A-8F2B-604094DEB7F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B05B4D7-9B7B-4BE7-B852-76A8C285FB71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3440947A-BDC3-41E2-B8C4-C01620109B14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3440947A-BDC3-41E2-B8C4-C01620109B14}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentazione" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="55">
   <si>
     <t>Indice Gulpease</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>Incremento 10</t>
+  </si>
+  <si>
+    <t>3.1.0</t>
+  </si>
+  <si>
+    <t>4.0.0</t>
   </si>
 </sst>
 </file>
@@ -939,10 +945,10 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1080,6 +1086,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5733,9 +5763,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$82:$B$89</c:f>
+              <c:f>Documentazione!$B$82:$B$91</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.1.0</c:v>
                 </c:pt>
@@ -5759,16 +5789,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$C$82:$C$89</c:f>
+              <c:f>Documentazione!$C$82:$C$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>60</c:v>
                 </c:pt>
@@ -5792,6 +5828,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5831,9 +5873,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$82:$B$89</c:f>
+              <c:f>Documentazione!$B$82:$B$91</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.1.0</c:v>
                 </c:pt>
@@ -5857,16 +5899,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$D$82:$D$89</c:f>
+              <c:f>Documentazione!$D$82:$D$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
@@ -5889,6 +5937,12 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
@@ -5929,9 +5983,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$82:$B$89</c:f>
+              <c:f>Documentazione!$B$82:$B$91</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.1.0</c:v>
                 </c:pt>
@@ -5955,16 +6009,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$E$82:$E$89</c:f>
+              <c:f>Documentazione!$E$82:$E$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>80</c:v>
                 </c:pt>
@@ -5987,6 +6047,12 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
@@ -6499,9 +6565,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$105:$B$111</c:f>
+              <c:f>Documentazione!$B$105:$B$113</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.1.0</c:v>
                 </c:pt>
@@ -6522,16 +6588,22 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$C$105:$C$111</c:f>
+              <c:f>Documentazione!$C$105:$C$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -6552,6 +6624,12 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6591,9 +6669,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$105:$B$111</c:f>
+              <c:f>Documentazione!$B$105:$B$113</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.1.0</c:v>
                 </c:pt>
@@ -6614,16 +6692,22 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$D$105:$D$111</c:f>
+              <c:f>Documentazione!$D$105:$D$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
@@ -6643,6 +6727,12 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
@@ -6683,9 +6773,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$105:$B$111</c:f>
+              <c:f>Documentazione!$B$105:$B$113</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.1.0</c:v>
                 </c:pt>
@@ -6706,16 +6796,22 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$E$105:$E$111</c:f>
+              <c:f>Documentazione!$E$105:$E$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>80</c:v>
                 </c:pt>
@@ -6735,6 +6831,12 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
@@ -7247,9 +7349,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$124:$B$130</c:f>
+              <c:f>Documentazione!$B$124:$B$132</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.1.0</c:v>
                 </c:pt>
@@ -7270,16 +7372,22 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$C$124:$C$130</c:f>
+              <c:f>Documentazione!$C$124:$C$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>64</c:v>
                 </c:pt>
@@ -7300,6 +7408,12 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7339,9 +7453,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$124:$B$130</c:f>
+              <c:f>Documentazione!$B$124:$B$132</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.1.0</c:v>
                 </c:pt>
@@ -7362,16 +7476,22 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$D$124:$D$130</c:f>
+              <c:f>Documentazione!$D$124:$D$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
@@ -7391,6 +7511,12 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
@@ -7431,9 +7557,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$124:$B$130</c:f>
+              <c:f>Documentazione!$B$124:$B$132</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.1.0</c:v>
                 </c:pt>
@@ -7454,16 +7580,22 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$E$124:$E$130</c:f>
+              <c:f>Documentazione!$E$124:$E$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>80</c:v>
                 </c:pt>
@@ -7483,6 +7615,12 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
@@ -19026,8 +19164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AECFA2-8686-4F57-8313-C78888B00A1F}">
   <dimension ref="B2:P265"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="C205" sqref="C205:C211"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19098,7 +19236,9 @@
       <c r="E4" s="2">
         <v>71</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>72</v>
+      </c>
       <c r="G4" s="2">
         <v>40</v>
       </c>
@@ -19119,7 +19259,9 @@
       <c r="E5" s="2">
         <v>71</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>75</v>
+      </c>
       <c r="G5" s="2">
         <v>40</v>
       </c>
@@ -19140,7 +19282,9 @@
       <c r="E6" s="2">
         <v>66</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>71</v>
+      </c>
       <c r="G6" s="2">
         <v>40</v>
       </c>
@@ -19184,7 +19328,9 @@
       <c r="E8" s="2">
         <v>58</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>58</v>
+      </c>
       <c r="G8" s="7">
         <v>40</v>
       </c>
@@ -19205,7 +19351,9 @@
       <c r="E9" s="2">
         <v>62</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>60</v>
+      </c>
       <c r="G9" s="2">
         <v>40</v>
       </c>
@@ -19226,7 +19374,9 @@
       <c r="E10" s="2">
         <v>60</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>60</v>
+      </c>
       <c r="G10" s="2">
         <v>40</v>
       </c>
@@ -19241,9 +19391,11 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2">
+        <v>65</v>
+      </c>
+      <c r="F11" s="2">
         <v>72</v>
       </c>
-      <c r="F11" s="2"/>
       <c r="G11" s="2">
         <v>40</v>
       </c>
@@ -19258,9 +19410,11 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2">
+        <v>69</v>
+      </c>
+      <c r="F12" s="2">
         <v>75</v>
       </c>
-      <c r="F12" s="2"/>
       <c r="G12" s="2">
         <v>40</v>
       </c>
@@ -19671,6 +19825,34 @@
         <v>80</v>
       </c>
     </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B90" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90" s="2">
+        <v>72</v>
+      </c>
+      <c r="D90" s="2">
+        <v>40</v>
+      </c>
+      <c r="E90" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B91" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C91" s="2">
+        <v>72</v>
+      </c>
+      <c r="D91" s="2">
+        <v>40</v>
+      </c>
+      <c r="E91" s="2">
+        <v>80</v>
+      </c>
+    </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" s="1" t="s">
         <v>19</v>
@@ -19794,6 +19976,34 @@
         <v>80</v>
       </c>
     </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B112" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C112" s="2">
+        <v>73</v>
+      </c>
+      <c r="D112" s="2">
+        <v>40</v>
+      </c>
+      <c r="E112" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B113" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C113" s="2">
+        <v>75</v>
+      </c>
+      <c r="D113" s="2">
+        <v>40</v>
+      </c>
+      <c r="E113" s="2">
+        <v>80</v>
+      </c>
+    </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="1" t="s">
         <v>20</v>
@@ -19917,6 +20127,34 @@
         <v>80</v>
       </c>
     </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B131" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C131" s="2">
+        <v>65</v>
+      </c>
+      <c r="D131" s="2">
+        <v>40</v>
+      </c>
+      <c r="E131" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B132" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C132" s="2">
+        <v>71</v>
+      </c>
+      <c r="D132" s="2">
+        <v>40</v>
+      </c>
+      <c r="E132" s="2">
+        <v>80</v>
+      </c>
+    </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B143" s="1" t="s">
         <v>21</v>
@@ -20104,6 +20342,34 @@
         <v>40</v>
       </c>
       <c r="E173" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B174" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C174" s="2">
+        <v>58</v>
+      </c>
+      <c r="D174" s="2">
+        <v>40</v>
+      </c>
+      <c r="E174" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B175" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C175" s="2">
+        <v>58</v>
+      </c>
+      <c r="D175" s="2">
+        <v>40</v>
+      </c>
+      <c r="E175" s="2">
         <v>80</v>
       </c>
     </row>
@@ -20353,7 +20619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3418E276-9CB5-4CBF-AFD3-1C3E1A23D165}">
   <dimension ref="C4:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+    <sheetView topLeftCell="B226" workbookViewId="0">
       <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>

--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiSupporto.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiSupporto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProcesso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B05B4D7-9B7B-4BE7-B852-76A8C285FB71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3167FBB-AF88-47BF-ABC6-76C19ED6A0DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3440947A-BDC3-41E2-B8C4-C01620109B14}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="58">
   <si>
     <t>Indice Gulpease</t>
   </si>
@@ -199,6 +199,15 @@
   </si>
   <si>
     <t>4.0.0</t>
+  </si>
+  <si>
+    <t>Incremento 11</t>
+  </si>
+  <si>
+    <t>Incremento 12</t>
+  </si>
+  <si>
+    <t>Incremento 13</t>
   </si>
 </sst>
 </file>
@@ -2413,9 +2422,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Verifica!$C$6:$C$11</c:f>
+              <c:f>Verifica!$C$6:$C$14</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -2433,16 +2442,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$D$6:$D$11</c:f>
+              <c:f>Verifica!$D$6:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.83</c:v>
                 </c:pt>
@@ -2459,6 +2477,15 @@
                   <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.81</c:v>
                 </c:pt>
               </c:numCache>
@@ -2499,9 +2526,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Verifica!$C$6:$C$11</c:f>
+              <c:f>Verifica!$C$6:$C$14</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -2519,16 +2546,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$E$6:$E$11</c:f>
+              <c:f>Verifica!$E$6:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.8</c:v>
                 </c:pt>
@@ -2545,6 +2581,15 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -2585,9 +2630,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Verifica!$C$6:$C$11</c:f>
+              <c:f>Verifica!$C$6:$C$14</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -2605,16 +2650,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$F$6:$F$11</c:f>
+              <c:f>Verifica!$F$6:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2631,6 +2685,15 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3080,9 +3143,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Verifica!$C$49:$C$54</c:f>
+              <c:f>Verifica!$C$49:$C$57</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -3100,16 +3163,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$D$49:$D$54</c:f>
+              <c:f>Verifica!$D$49:$D$57</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -3126,6 +3198,15 @@
                   <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -3166,9 +3247,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Verifica!$C$49:$C$54</c:f>
+              <c:f>Verifica!$C$49:$C$57</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -3186,16 +3267,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$E$49:$E$54</c:f>
+              <c:f>Verifica!$E$49:$E$57</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.8</c:v>
                 </c:pt>
@@ -3212,6 +3302,15 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -3252,9 +3351,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Verifica!$C$49:$C$54</c:f>
+              <c:f>Verifica!$C$49:$C$57</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -3272,16 +3371,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$F$49:$F$54</c:f>
+              <c:f>Verifica!$F$49:$F$57</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3298,6 +3406,15 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3734,9 +3851,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Verifica!$C$99:$C$104</c:f>
+              <c:f>Verifica!$C$99:$C$107</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -3754,16 +3871,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$D$99:$D$104</c:f>
+              <c:f>Verifica!$D$99:$D$107</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.52</c:v>
                 </c:pt>
@@ -3780,6 +3906,15 @@
                   <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.95</c:v>
                 </c:pt>
               </c:numCache>
@@ -3834,9 +3969,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Verifica!$C$99:$C$104</c:f>
+              <c:f>Verifica!$C$99:$C$107</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -3854,16 +3989,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$E$99:$E$104</c:f>
+              <c:f>Verifica!$E$99:$E$107</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3880,6 +4024,15 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -4330,9 +4483,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Verifica!$C$140:$C$145</c:f>
+              <c:f>Verifica!$C$140:$C$148</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -4350,16 +4503,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$D$140:$D$145</c:f>
+              <c:f>Verifica!$D$140:$D$148</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4376,6 +4538,15 @@
                   <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.92</c:v>
                 </c:pt>
               </c:numCache>
@@ -4416,9 +4587,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Verifica!$C$140:$C$145</c:f>
+              <c:f>Verifica!$C$140:$C$148</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -4436,16 +4607,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$E$140:$E$145</c:f>
+              <c:f>Verifica!$E$140:$E$148</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.85</c:v>
                 </c:pt>
@@ -4462,6 +4642,15 @@
                   <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.85</c:v>
                 </c:pt>
               </c:numCache>
@@ -4502,9 +4691,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Verifica!$C$140:$C$145</c:f>
+              <c:f>Verifica!$C$140:$C$148</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Incremento 5</c:v>
                 </c:pt>
@@ -4522,16 +4711,25 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Verifica!$F$140:$F$145</c:f>
+              <c:f>Verifica!$F$140:$F$148</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4548,6 +4746,15 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -9567,9 +9774,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$203:$B$210</c:f>
+              <c:f>Documentazione!$B$203:$B$213</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>A</c:v>
                 </c:pt>
@@ -9593,16 +9800,25 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Incremento 10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Incremento 11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Incremento 12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Incremento 13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$C$203:$C$210</c:f>
+              <c:f>Documentazione!$C$203:$C$213</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9625,6 +9841,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -19164,8 +19389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AECFA2-8686-4F57-8313-C78888B00A1F}">
   <dimension ref="B2:P265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D178" sqref="D178"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="E212" sqref="E212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20463,9 +20688,25 @@
     </row>
     <row r="211" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B211" s="23" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C211" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B212" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C212" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B213" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C213" s="2">
         <v>0</v>
       </c>
     </row>
@@ -20619,8 +20860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3418E276-9CB5-4CBF-AFD3-1C3E1A23D165}">
   <dimension ref="C4:H150"/>
   <sheetViews>
-    <sheetView topLeftCell="B226" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="B127" workbookViewId="0">
+      <selection activeCell="D145" sqref="D145:F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20748,7 +20989,7 @@
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C12" s="23" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D12" s="20">
         <v>0.81</v>
@@ -20761,13 +21002,32 @@
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="22"/>
+      <c r="C13" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.81</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="F13" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="22"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="C14" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="20">
+        <v>0.81</v>
+      </c>
+      <c r="E14" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="F14" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C15" s="22"/>
@@ -20888,7 +21148,7 @@
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C55" s="23" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D55" s="20">
         <v>0.8</v>
@@ -20901,13 +21161,32 @@
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C56" s="22"/>
+      <c r="C56" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="E56" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="F56" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C57" s="22"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
+      <c r="C57" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="E57" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="F57" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C58" s="22"/>
@@ -21036,12 +21315,34 @@
     </row>
     <row r="105" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C105" s="23" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D105" s="20">
         <v>0.95</v>
       </c>
       <c r="E105" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C106" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D106" s="20">
+        <v>0.95</v>
+      </c>
+      <c r="E106" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C107" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D107" s="20">
+        <v>0.95</v>
+      </c>
+      <c r="E107" s="20">
         <v>1</v>
       </c>
     </row>
@@ -21152,10 +21453,10 @@
     </row>
     <row r="146" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C146" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D146" s="20">
-        <v>0.94</v>
+        <v>55</v>
+      </c>
+      <c r="D146" s="24">
+        <v>0.92</v>
       </c>
       <c r="E146" s="20">
         <v>0.85</v>
@@ -21165,11 +21466,11 @@
       </c>
     </row>
     <row r="147" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C147" s="22">
-        <v>44300</v>
-      </c>
-      <c r="D147" s="20">
-        <v>1</v>
+      <c r="C147" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D147" s="24">
+        <v>0.92</v>
       </c>
       <c r="E147" s="20">
         <v>0.85</v>
@@ -21179,10 +21480,18 @@
       </c>
     </row>
     <row r="148" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C148" s="22"/>
-      <c r="D148" s="20"/>
-      <c r="E148" s="20"/>
-      <c r="F148" s="20"/>
+      <c r="C148" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D148" s="24">
+        <v>0.92</v>
+      </c>
+      <c r="E148" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="F148" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="149" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C149" s="22"/>
@@ -21197,6 +21506,7 @@
       <c r="F150" s="20"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiSupporto.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiSupporto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProcesso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3167FBB-AF88-47BF-ABC6-76C19ED6A0DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05471DBB-F5B8-4AB3-8881-00B009AB9897}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3440947A-BDC3-41E2-B8C4-C01620109B14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3440947A-BDC3-41E2-B8C4-C01620109B14}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentazione" sheetId="1" r:id="rId1"/>
@@ -3201,13 +3201,13 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3912,10 +3912,10 @@
                   <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.95</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.95</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4541,13 +4541,13 @@
                   <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19389,7 +19389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AECFA2-8686-4F57-8313-C78888B00A1F}">
   <dimension ref="B2:P265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+    <sheetView topLeftCell="A304" workbookViewId="0">
       <selection activeCell="E212" sqref="E212"/>
     </sheetView>
   </sheetViews>
@@ -20860,8 +20860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3418E276-9CB5-4CBF-AFD3-1C3E1A23D165}">
   <dimension ref="C4:H150"/>
   <sheetViews>
-    <sheetView topLeftCell="B127" workbookViewId="0">
-      <selection activeCell="D145" sqref="D145:F148"/>
+    <sheetView tabSelected="1" topLeftCell="B136" workbookViewId="0">
+      <selection activeCell="H154" sqref="H154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21151,7 +21151,7 @@
         <v>55</v>
       </c>
       <c r="D55" s="20">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="E55" s="20">
         <v>0.8</v>
@@ -21165,7 +21165,7 @@
         <v>56</v>
       </c>
       <c r="D56" s="20">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="E56" s="20">
         <v>0.8</v>
@@ -21179,7 +21179,7 @@
         <v>57</v>
       </c>
       <c r="D57" s="20">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="E57" s="20">
         <v>0.8</v>
@@ -21329,7 +21329,7 @@
         <v>56</v>
       </c>
       <c r="D106" s="20">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E106" s="20">
         <v>1</v>
@@ -21340,7 +21340,7 @@
         <v>57</v>
       </c>
       <c r="D107" s="20">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E107" s="20">
         <v>1</v>
@@ -21456,7 +21456,7 @@
         <v>55</v>
       </c>
       <c r="D146" s="24">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="E146" s="20">
         <v>0.85</v>
@@ -21470,7 +21470,7 @@
         <v>56</v>
       </c>
       <c r="D147" s="24">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="E147" s="20">
         <v>0.85</v>
@@ -21484,7 +21484,7 @@
         <v>57</v>
       </c>
       <c r="D148" s="24">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="E148" s="20">
         <v>0.85</v>

--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiSupporto.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiSupporto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProcesso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05471DBB-F5B8-4AB3-8881-00B009AB9897}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D2F799-9B78-471F-ABB6-D7CBFB7C0E68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3440947A-BDC3-41E2-B8C4-C01620109B14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3440947A-BDC3-41E2-B8C4-C01620109B14}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentazione" sheetId="1" r:id="rId1"/>
@@ -8919,7 +8919,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10329246811808639"/>
+          <c:y val="0.14026414984922295"/>
+          <c:w val="0.87433734939759034"/>
+          <c:h val="0.61566950823474831"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -9021,9 +9031,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$167:$B$173</c:f>
+              <c:f>Documentazione!$B$167:$B$175</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.1.0</c:v>
                 </c:pt>
@@ -9044,16 +9054,22 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$C$167:$C$173</c:f>
+              <c:f>Documentazione!$C$167:$C$175</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>60</c:v>
                 </c:pt>
@@ -9073,6 +9089,12 @@
                   <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
@@ -9113,9 +9135,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$167:$B$173</c:f>
+              <c:f>Documentazione!$B$167:$B$175</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.1.0</c:v>
                 </c:pt>
@@ -9136,16 +9158,22 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$D$167:$D$173</c:f>
+              <c:f>Documentazione!$D$167:$D$175</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
@@ -9165,6 +9193,12 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
@@ -9205,9 +9239,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Documentazione!$B$167:$B$173</c:f>
+              <c:f>Documentazione!$B$167:$B$175</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.1.0</c:v>
                 </c:pt>
@@ -9228,16 +9262,22 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0.0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Documentazione!$E$167:$E$173</c:f>
+              <c:f>Documentazione!$E$167:$E$175</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>80</c:v>
                 </c:pt>
@@ -9257,6 +9297,12 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
@@ -19389,8 +19435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AECFA2-8686-4F57-8313-C78888B00A1F}">
   <dimension ref="B2:P265"/>
   <sheetViews>
-    <sheetView topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="E212" sqref="E212"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E183" sqref="E183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20860,7 +20906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3418E276-9CB5-4CBF-AFD3-1C3E1A23D165}">
   <dimension ref="C4:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B136" workbookViewId="0">
+    <sheetView topLeftCell="B85" workbookViewId="0">
       <selection activeCell="H154" sqref="H154"/>
     </sheetView>
   </sheetViews>

--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiSupporto.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiSupporto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProcesso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D2F799-9B78-471F-ABB6-D7CBFB7C0E68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CCA2AE-8496-47C4-9296-ABFBD85E40DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3440947A-BDC3-41E2-B8C4-C01620109B14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3440947A-BDC3-41E2-B8C4-C01620109B14}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentazione" sheetId="1" r:id="rId1"/>
@@ -3207,7 +3207,7 @@
                   <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.82</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19435,7 +19435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AECFA2-8686-4F57-8313-C78888B00A1F}">
   <dimension ref="B2:P265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A311" workbookViewId="0">
       <selection activeCell="E183" sqref="E183"/>
     </sheetView>
   </sheetViews>
@@ -20906,8 +20906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3418E276-9CB5-4CBF-AFD3-1C3E1A23D165}">
   <dimension ref="C4:H150"/>
   <sheetViews>
-    <sheetView topLeftCell="B85" workbookViewId="0">
-      <selection activeCell="H154" sqref="H154"/>
+    <sheetView tabSelected="1" topLeftCell="B226" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21225,7 +21225,7 @@
         <v>57</v>
       </c>
       <c r="D57" s="20">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="E57" s="20">
         <v>0.8</v>

--- a/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiSupporto.xlsx
+++ b/DocumentazioneEsterna/PianoDiQualifica/res/ResocontoAttivitaDiVerifica/res/metriche/grafici/qualitàProcesso/graficiProcessiSupporto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Università\Terzo anno\SWE\Progetto\Documentazione\DocumentazioneEsterna\PianoDiQualifica\res\ResocontoAttivitaDiVerifica\res\metriche\grafici\qualitàProcesso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CCA2AE-8496-47C4-9296-ABFBD85E40DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD55F16-8FBC-4B04-BF77-E769E2669017}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3440947A-BDC3-41E2-B8C4-C01620109B14}"/>
   </bookViews>
@@ -2480,13 +2480,13 @@
                   <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.81</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.81</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.81</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20906,8 +20906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3418E276-9CB5-4CBF-AFD3-1C3E1A23D165}">
   <dimension ref="C4:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B226" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21038,7 +21038,7 @@
         <v>55</v>
       </c>
       <c r="D12" s="20">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
       <c r="E12" s="20">
         <v>0.8</v>
@@ -21052,7 +21052,7 @@
         <v>56</v>
       </c>
       <c r="D13" s="20">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
       <c r="E13" s="20">
         <v>0.8</v>
@@ -21066,7 +21066,7 @@
         <v>57</v>
       </c>
       <c r="D14" s="20">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
       <c r="E14" s="20">
         <v>0.8</v>
